--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CB440F4-322B-4002-9A6C-A68FD6200946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{596AF461-5E74-4C01-85B9-8FACBAFFB048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -497,10 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>price_end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RCI9_slope</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,6 +685,21 @@
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_close</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,29 +1065,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1084,608 +1096,629 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="str">
         <f>"'"&amp;C3&amp;"'"&amp;","</f>
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I37" si="0">"'"&amp;C4&amp;"'"&amp;","</f>
+        <v>'trading_day',</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H37" si="0">"'"&amp;C4&amp;"'"&amp;","</f>
-        <v>'trading_day',</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Monday_flg',</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>'Monday_flg',</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Thusday_flg',</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>'Thusday_flg',</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Wednesday_flg',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>'Wednesday_flg',</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Thursday_flg',</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>'Thursday_flg',</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="str">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="str">
+      <c r="D11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>'price_end',</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>'price_close',</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>'RCI9_slope',</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="str">
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>'RSI',</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="0"/>
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
         <v>26</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
         <v>29</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="0"/>
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
         <v>36</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="0"/>
         <v>'MA25_slope',</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
         <v>37</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>'MA50_slope',</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
         <v>38</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="0"/>
         <v>'MA75_slope',</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>'MA25_devi',</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
         <v>44</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_2sigma_m',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_m',</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_p_devi',</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="F35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_2sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_p_devi',</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="F36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_sigma_m_devi',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_m_devi',</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" t="str">
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_2sigma_m_devi',</v>
       </c>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{596AF461-5E74-4C01-85B9-8FACBAFFB048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5B0F0-21DA-0347-A262-77F5B5034192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13540" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -1069,26 +1074,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>'Monday_flg',</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>'Thusday_flg',</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -1198,7 +1203,7 @@
         <v>'Wednesday_flg',</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>'Thursday_flg',</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>78</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1321,7 +1326,7 @@
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>'RCI9_slope',</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>'RSI',</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>56</v>
       </c>
@@ -1396,13 +1401,16 @@
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -1465,7 +1473,7 @@
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>'MA25_slope',</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>'MA50_slope',</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>35</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>'MA75_slope',</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>'MA25_devi',</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +1638,7 @@
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>'BLGR_sigma_p_devi',</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -1693,7 +1701,7 @@
         <v>'BLGR_2sigma_p_devi',</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>'BLGR_sigma_m_devi',</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>70</v>
       </c>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5B0F0-21DA-0347-A262-77F5B5034192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03C548-7DFF-8740-82FD-570D0073E7E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13540" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -1073,8 +1073,8 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1426,6 +1426,9 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1440,6 +1443,9 @@
     <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>59</v>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03C548-7DFF-8740-82FD-570D0073E7E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FAE2DB2E-F146-448F-9AD3-892F7AB22FD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13540" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="13545" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -1073,27 +1068,27 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31:I33"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1132,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1150,7 @@
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>'Monday_flg',</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>'Thusday_flg',</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>'Wednesday_flg',</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -1218,7 +1213,7 @@
         <v>'Thursday_flg',</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>78</v>
       </c>
@@ -1233,7 +1228,7 @@
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1326,13 +1321,16 @@
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1365,13 +1363,16 @@
         <v>'RCI9_slope',</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>'RSI',</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>56</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>'MA25_slope',</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>'MA50_slope',</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>'MA75_slope',</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -1611,13 +1612,16 @@
         <v>'MA25_devi',</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>59</v>
       </c>
@@ -1629,10 +1633,13 @@
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1644,10 +1651,13 @@
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1659,10 +1669,13 @@
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>22</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1674,7 +1687,7 @@
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>'BLGR_sigma_p_devi',</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>'BLGR_2sigma_p_devi',</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -1722,7 +1735,7 @@
         <v>'BLGR_sigma_m_devi',</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>70</v>
       </c>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FAE2DB2E-F146-448F-9AD3-892F7AB22FD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4870170-B986-604B-9901-86498D8E2E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="13545" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="16920" windowHeight="14920" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -700,6 +705,10 @@
   </si>
   <si>
     <t>price_close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1068,27 +1077,27 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>'Monday_flg',</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>'Thusday_flg',</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>'Wednesday_flg',</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>'Thursday_flg',</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>78</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>'RCI9_slope',</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>'RSI',</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>56</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -1459,13 +1468,16 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1480,10 +1492,13 @@
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>25</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1498,10 +1513,13 @@
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>27</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1516,10 +1534,13 @@
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>28</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +1576,7 @@
         <v>'MA25_slope',</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -1573,7 +1594,7 @@
         <v>'MA50_slope',</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>'MA75_slope',</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -1612,7 +1633,7 @@
         <v>'MA25_devi',</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1654,7 @@
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1690,7 @@
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>22</v>
       </c>
@@ -1687,7 +1708,7 @@
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>62</v>
       </c>
@@ -1705,7 +1726,7 @@
         <v>'BLGR_sigma_p_devi',</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>68</v>
       </c>
@@ -1720,7 +1741,7 @@
         <v>'BLGR_2sigma_p_devi',</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -1735,7 +1756,7 @@
         <v>'BLGR_sigma_m_devi',</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>70</v>
       </c>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4870170-B986-604B-9901-86498D8E2E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F12760C6-F62C-460E-B4FF-0E6C5BDCF9C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="16920" windowHeight="14920" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="16920" windowHeight="14925" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -709,6 +704,54 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>down_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終値　－　始値　＞　０　なら１</t>
+    <rPh sb="0" eb="2">
+      <t>オワリネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハジメネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終値　－　始値　＜　０　なら１</t>
+    <rPh sb="0" eb="2">
+      <t>オワリネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハジメネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上ヒゲ・下ヒゲをどのように再現するか要検討</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゲ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヨウケントウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,30 +1117,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D25"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1184,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1155,11 +1198,11 @@
         <v>72</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I37" si="0">"'"&amp;C4&amp;"'"&amp;","</f>
+        <f t="shared" ref="I4:I41" si="0">"'"&amp;C4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1177,7 +1220,7 @@
         <v>'Monday_flg',</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -1192,7 +1235,7 @@
         <v>'Thusday_flg',</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>76</v>
       </c>
@@ -1207,7 +1250,7 @@
         <v>'Wednesday_flg',</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>77</v>
       </c>
@@ -1222,7 +1265,7 @@
         <v>'Thursday_flg',</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>78</v>
       </c>
@@ -1237,7 +1280,7 @@
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1298,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1316,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1334,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1309,7 +1352,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -1330,443 +1373,487 @@
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>'up_flg',</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>'down_flg',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="20" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>'RCI9_slope',</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>'RSI',</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>'RSI_slope',</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25',</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>'RCI9_slope',</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>'RSI',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>'RSI_slope',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>'MA25',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="25" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="0"/>
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="26" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="0"/>
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="27" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="28" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="0"/>
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="30" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25_slope',</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA50_slope',</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA75_slope',</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25_devi',</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>'BLGR_sigma_p',</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA25_slope',</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_p',</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA50_slope',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>'MA75_slope',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>'MA25_devi',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_sigma_p',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>'BLGR_2sigma_p',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
         <v>44</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G37" t="s">
         <v>43</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="38" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I38" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_sigma_p_devi',</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="39" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I39" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_2sigma_p_devi',</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="40" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I40" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_sigma_m_devi',</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="41" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I41" t="str">
         <f t="shared" si="0"/>
         <v>'BLGR_2sigma_m_devi',</v>
       </c>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F12760C6-F62C-460E-B4FF-0E6C5BDCF9C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7C617-4233-4745-866C-C7265A17FD4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="495" windowWidth="16920" windowHeight="14925" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="600" yWindow="1480" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -703,10 +708,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヒゲ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -752,6 +753,36 @@
     <rPh sb="18" eb="21">
       <t>ヨウケントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当日を含む5日間で上昇した日数</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0,5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,12 +827,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,744 +1151,957 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <dimension ref="B1:J41"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
+    <row r="1" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" t="str">
-        <f>"'"&amp;C3&amp;"'"&amp;","</f>
+      <c r="J3" t="str">
+        <f>"'"&amp;D3&amp;"'"&amp;","</f>
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I41" si="0">"'"&amp;C4&amp;"'"&amp;","</f>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J43" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>'wd',</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="2">"'"&amp;D6&amp;"'"&amp;","</f>
         <v>'Monday_flg',</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
         <v>'Thusday_flg',</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
         <v>'Wednesday_flg',</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
         <v>'Thursday_flg',</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
         <v>'Friday_flg',</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
         <v>'prise_end_diff_N1',</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>'up_flg',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H17" t="s">
         <v>88</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>'up_flg',</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>'down_flg',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>'up_cnt',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>'RCI9',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>'RCI9_slope',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>'RSI',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>'RSI_slope',</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA25',</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA50',</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA75',</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>'down_flg',</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>'GX_25_50',</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>'GX_25_75',</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>'DX_25_50',</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>'DX_25_75',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA25_slope',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA50_slope',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA75_slope',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>'RCI9',</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA25_devi',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>'RCI9_slope',</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p',</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m',</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m',</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>'RSI',</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>'RSI_slope',</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25',</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA50',</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA75',</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>'GX_25_50',</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>'GX_25_75',</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>'DX_25_50',</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>'DX_25_75',</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25_slope',</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA50_slope',</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA75_slope',</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>'MA25_devi',</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_p',</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_p',</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_m',</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_m',</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_p_devi',</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_2sigma_p_devi',</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="0"/>
-        <v>'BLGR_sigma_m_devi',</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="0"/>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
         <v>'BLGR_2sigma_m_devi',</v>
       </c>
     </row>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB43F82D-BD13-4130-B951-C8CA5F30B90A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F72A1A7-DF35-4AC2-A970-4C95179720CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1485" windowWidth="22725" windowHeight="13875" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
@@ -1447,8 +1447,8 @@
   <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>92</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K54" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
+        <f t="shared" ref="K4:K55" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
@@ -2755,6 +2755,10 @@
       <c r="H51" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_devi_m',</v>
+      </c>
     </row>
     <row r="52" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
@@ -2795,6 +2799,10 @@
       <c r="H53" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi_m',</v>
+      </c>
     </row>
     <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
@@ -2834,6 +2842,10 @@
       </c>
       <c r="H55" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m_devi_m',</v>
       </c>
     </row>
   </sheetData>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\N225predict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F72A1A7-DF35-4AC2-A970-4C95179720CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53B0E8-0FB2-BA4E-AF2D-8BDA559771EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1485" windowWidth="22725" windowHeight="13875" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="600" yWindow="1480" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -549,26 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Monday_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thusday_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wednesday_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thursday_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Friday_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pandas用</t>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
@@ -1076,6 +1061,26 @@
     <rPh sb="14" eb="15">
       <t>フ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thusday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thursday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Friday</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1447,32 +1452,32 @@
   <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="11" max="11" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1481,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1490,16 +1495,16 @@
         <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1520,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -1530,7 +1535,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B55" si="0">ROW()-2</f>
         <v>2</v>
@@ -1542,20 +1547,20 @@
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4:K55" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1564,7 +1569,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -1573,23 +1578,26 @@
         <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="1"/>
         <v>'wd',</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -1598,20 +1606,23 @@
         <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6" si="2">"'"&amp;D6&amp;"'"&amp;","</f>
-        <v>'Monday_flg',</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>'Monday',</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>59</v>
@@ -1620,20 +1631,23 @@
         <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>'Thusday_flg',</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>'Thusday',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>124</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>59</v>
@@ -1642,20 +1656,23 @@
         <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>'Wednesday_flg',</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>'Wednesday',</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>125</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>59</v>
@@ -1664,20 +1681,23 @@
         <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K9" t="str">
         <f>"'"&amp;D9&amp;"'"&amp;","</f>
-        <v>'Thursday_flg',</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>'Thursday',</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>126</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>59</v>
@@ -1686,14 +1706,14 @@
         <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>'Friday_flg',</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>'Friday',</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1705,20 +1725,20 @@
         <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1730,20 +1750,20 @@
         <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1755,20 +1775,20 @@
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1777,23 +1797,23 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1802,16 +1822,16 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>61</v>
@@ -1821,13 +1841,13 @@
         <v>'price_end_diff_N1',</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1839,23 +1859,23 @@
         <v>56</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
         <v>'up_flg',</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1867,51 +1887,51 @@
         <v>56</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
         <v>'down_flg',</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5',</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1920,23 +1940,23 @@
         <v>56</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5_0_flg',</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1945,23 +1965,23 @@
         <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5_1_flg',</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1970,23 +1990,23 @@
         <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5_2_flg',</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1995,23 +2015,23 @@
         <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>'up_cnt_rolling5_3_flg',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_3_flg',</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -2020,23 +2040,23 @@
         <v>56</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5_4_flg',</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -2045,26 +2065,26 @@
         <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
         <v>'up_cnt_rolling5_5_flg',</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2076,26 +2096,26 @@
         <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>'up_must_length',</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2107,23 +2127,23 @@
         <v>54</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
         <v>'down_must_length',</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -2135,17 +2155,17 @@
         <v>54</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
         <v>'box_length',</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2173,7 +2193,7 @@
         <v>'RCI9',</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2195,7 +2215,7 @@
         <v>'RCI9_slope',</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2220,7 +2240,7 @@
         <v>'RSI',</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2242,7 +2262,7 @@
         <v>'RSI_slope',</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2260,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
         <v>16</v>
@@ -2270,7 +2290,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2285,7 +2305,7 @@
         <v>54</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -2295,7 +2315,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2310,7 +2330,7 @@
         <v>54</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -2320,7 +2340,7 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2341,7 +2361,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -2351,7 +2371,7 @@
         <v>'GX_25_50',</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2369,7 +2389,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
@@ -2379,7 +2399,7 @@
         <v>'GX_25_75',</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2397,7 +2417,7 @@
         <v>56</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
         <v>29</v>
@@ -2407,7 +2427,7 @@
         <v>'DX_25_50',</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2425,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
         <v>30</v>
@@ -2435,7 +2455,7 @@
         <v>'DX_25_75',</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2453,7 +2473,7 @@
         <v>54</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
@@ -2463,7 +2483,7 @@
         <v>'MA25_slope',</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2478,7 +2498,7 @@
         <v>54</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I40" t="s">
         <v>37</v>
@@ -2488,7 +2508,7 @@
         <v>'MA50_slope',</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2503,7 +2523,7 @@
         <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
         <v>38</v>
@@ -2513,7 +2533,7 @@
         <v>'MA75_slope',</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2522,51 +2542,51 @@
         <v>39</v>
       </c>
       <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>'MA25_devi_p',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v>'MA25_devi_p',</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43" t="s">
-        <v>114</v>
-      </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
         <v>'MA25_devi_m',</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2584,17 +2604,17 @@
         <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2609,17 +2629,17 @@
         <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2634,17 +2654,17 @@
         <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2659,17 +2679,17 @@
         <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2678,170 +2698,170 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p_devi_p',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_p_devi_p',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" ref="K49" si="3">"'"&amp;D49&amp;"'"&amp;","</f>
         <v>'BLGR_sigma_p_devi_m',</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_devi_p',</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_devi_m',</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi_p',</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi_m',</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m_devi_p',</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_devi_p',</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_devi_m',</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_p',</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_m',</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m_devi_p',</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="1"/>

--- a/説明変数.ver.0.1.xlsx
+++ b/説明変数.ver.0.1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53B0E8-0FB2-BA4E-AF2D-8BDA559771EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279433C2-B678-2E40-9793-E2A3EB86B509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1480" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="1320" yWindow="560" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">項目一覧!$B$2:$K$70</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
   <si>
     <t>移動平均</t>
     <rPh sb="0" eb="2">
@@ -700,30 +703,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>up_cnt_rolling5_0_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>up_cnt_rolling5_1_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>up_cnt_rolling5_2_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>up_cnt_rolling5_3_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>up_cnt_rolling5_4_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>up_cnt_rolling5_5_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去増減</t>
     <rPh sb="0" eb="2">
       <t>カコ</t>
@@ -1064,23 +1043,177 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Monday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thusday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wednesday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thursday</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Friday</t>
+    <t>RCI9_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCI9_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0, 100]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[-100, 0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCI（期間９）が正の値の時にその値を表示</t>
+    <rPh sb="0" eb="1">
+      <t>n</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCI（期間９）が負の値の時にその値を表示</t>
+    <rPh sb="0" eb="1">
+      <t>n</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_cnt_rolling5_5.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd_Monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd_Thusday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd_Wednesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd_Thursday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wd_Friday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCI9_slope_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCI9_slope_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA25_slope_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA25_slope_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA50_slope_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA50_slope_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA75_slope_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA75_slope_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MA25_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_p_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　１シグマからの乖離率</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　１シグマからの乖離率（正）</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　１シグマからの乖離率（負）</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_p_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　２シグマからの乖離率</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　２シグマからの乖離率（正）</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャー　２シグマからの乖離率（負）</t>
+    <rPh sb="0" eb="3">
+      <t>カイリイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_sigma_m_devi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLGR_2sigma_m_devi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,11 +1582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <dimension ref="B1:L55"/>
+  <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1461,12 +1594,12 @@
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1495,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -1537,7 +1670,7 @@
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B55" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B70" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1556,7 +1689,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K55" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
+        <f t="shared" ref="K4:K70" si="1">"'"&amp;D4&amp;"'"&amp;","</f>
         <v>'trading_day',</v>
       </c>
     </row>
@@ -1594,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -1610,7 +1743,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6" si="2">"'"&amp;D6&amp;"'"&amp;","</f>
-        <v>'Monday',</v>
+        <v>'wd_Monday',</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1635,7 +1768,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>'Thusday',</v>
+        <v>'wd_Thusday',</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -1660,7 +1793,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>'Wednesday',</v>
+        <v>'wd_Wednesday',</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1669,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1685,7 +1818,7 @@
       </c>
       <c r="K9" t="str">
         <f>"'"&amp;D9&amp;"'"&amp;","</f>
-        <v>'Thursday',</v>
+        <v>'wd_Thursday',</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1694,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1710,7 +1843,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>'Friday',</v>
+        <v>'wd_Friday',</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,7 +1955,7 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>67</v>
@@ -1903,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1931,7 +2064,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1943,11 +2079,11 @@
         <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_0_flg',</v>
+        <v>'up_cnt_rolling5_0.0',</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1956,7 +2092,10 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>123</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1968,11 +2107,11 @@
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_1_flg',</v>
+        <v>'up_cnt_rolling5_1.0',</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +2120,10 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1993,11 +2135,11 @@
         <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_2_flg',</v>
+        <v>'up_cnt_rolling5_2.0',</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2006,7 +2148,10 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -2018,11 +2163,11 @@
         <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_3_flg',</v>
+        <v>'up_cnt_rolling5_3.0',</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,7 +2176,10 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -2043,11 +2191,11 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_4_flg',</v>
+        <v>'up_cnt_rolling5_4.0',</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2204,10 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -2068,11 +2219,11 @@
         <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>'up_cnt_rolling5_5_flg',</v>
+        <v>'up_cnt_rolling5_5.0',</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,7 +2247,7 @@
         <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>84</v>
@@ -2127,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>85</v>
@@ -2155,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>86</v>
@@ -2179,12 +2330,12 @@
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I28" t="s">
         <v>8</v>
       </c>
@@ -2199,20 +2350,26 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>118</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>'RCI9_slope',</v>
+        <v>'RCI9_p',</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,11 +2377,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -2233,11 +2387,17 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>121</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>'RSI',</v>
+        <v>'RCI9_m',</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2246,20 +2406,23 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
-        <v>'RSI_slope',</v>
+        <v>'RCI9_slope',</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,27 +2430,24 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25',</v>
+        <v>'RCI9_slope_p',</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,23 +2456,23 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
-        <v>'MA50',</v>
+        <v>'RCI9_slope_m',</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,24 +2480,27 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
-        <v>'MA75',</v>
+        <v>'RSI',</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,11 +2508,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -2358,17 +2518,17 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
-        <v>'GX_25_50',</v>
+        <v>'RSI_slope',</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,27 +2536,30 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>'GX_25_75',</v>
+        <v>'MA25',</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,26 +2568,26 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>'DX_25_50',</v>
+        <v>'MA50',</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2433,26 +2596,26 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="1"/>
-        <v>'DX_25_75',</v>
+        <v>'MA75',</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2461,26 +2624,29 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_slope',</v>
+        <v>'GX_25_50',</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2489,23 +2655,26 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
-        <v>'MA50_slope',</v>
+        <v>'GX_25_75',</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2514,23 +2683,26 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>'MA75_slope',</v>
+        <v>'DX_25_50',</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,27 +2710,27 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_devi_p',</v>
+        <v>'DX_25_75',</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,24 +2738,30 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>33</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
-        <v>'MA25_devi_m',</v>
+        <v>'MA25_slope',</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,27 +2769,24 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_p',</v>
+        <v>'MA25_slope_p',</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,23 +2795,23 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p',</v>
+        <v>'MA25_slope_m',</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,23 +2820,23 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m',</v>
+        <v>'MA50_slope',</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2670,23 +2845,23 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m',</v>
+        <v>'MA50_slope_p',</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2694,24 +2869,24 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>138</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_p_devi_p',</v>
+        <v>'MA50_slope_m',</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,20 +2895,26 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>35</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="I49" t="s">
+        <v>38</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" ref="K49" si="3">"'"&amp;D49&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_p_devi_m',</v>
+        <f t="shared" si="1"/>
+        <v>'MA75_slope',</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2742,20 +2923,23 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>139</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_devi_p',</v>
+        <v>'MA75_slope_p',</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,20 +2948,23 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>140</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_p_devi_m',</v>
+        <v>'MA75_slope_m',</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,21 +2972,30 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="I52" t="s">
+        <v>102</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_p',</v>
+        <v>'MA25_devi',</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2808,20 +3004,26 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>98</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v>'BLGR_sigma_m_devi_m',</v>
+        <f t="shared" ref="K53" si="3">"'"&amp;D53&amp;"'"&amp;","</f>
+        <v>'MA25_devi_p',</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2830,20 +3032,26 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" t="s">
         <v>103</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="1"/>
-        <v>'BLGR_2sigma_m_devi_p',</v>
+        <v>'MA25_devi_m',</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,24 +3059,368 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
       <c r="D55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" t="s">
+        <v>112</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p',</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p',</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m',</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m',</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" ref="K60" si="4">"'"&amp;D60&amp;"'"&amp;","</f>
+        <v>'BLGR_sigma_p_devi_p',</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" ref="K61:K63" si="5">"'"&amp;D61&amp;"'"&amp;","</f>
+        <v>'BLGR_sigma_p_devi_m',</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>147</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="5"/>
+        <v>'BLGR_2sigma_p_devi',</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="5"/>
+        <v>'BLGR_2sigma_p_devi_p',</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
         <v>107</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s">
+        <v>149</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_p_devi_m',</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi_p',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_sigma_m_devi_m',</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="1"/>
+        <v>'BLGR_2sigma_m_devi_p',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="1"/>
         <v>'BLGR_2sigma_m_devi_m',</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:K70" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
